--- a/sgd.xlsx
+++ b/sgd.xlsx
@@ -461,89 +461,89 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Loss function</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Avg. Time / Epoch</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Image dimension</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Loss</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Min. Loss</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Device</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Convolutional layers</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Pools</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Created by</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Total training time</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Gamma</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Weight decay</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Scheduler</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Loss function</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Avg. Time / Epoch</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Image dimension</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Loss</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Min. Loss</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Dataset</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Device</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Convolutional layers</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Pools</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Created by</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Gamma</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weight decay</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Min. LR</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Total training time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-1-5 11:24:41</t>
+          <t>2024-1-5 11:43:54</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -560,47 +560,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G2" t="n">
+        <v>14.8</v>
+      </c>
       <c r="H2" t="n">
-        <v>14.8</v>
+        <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>32</v>
+        <v>1.375</v>
       </c>
       <c r="J2" t="n">
-        <v>1.5397</v>
+        <v>1.2159</v>
       </c>
       <c r="K2" t="n">
-        <v>1.2842</v>
-      </c>
-      <c r="L2" t="n">
-        <v>51.3567</v>
+        <v>53.4049</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N2" t="n">
+        <v>4</v>
+      </c>
       <c r="O2" t="n">
-        <v>4</v>
-      </c>
-      <c r="P2" t="n">
         <v>2</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q2" t="n">
+        <v>296.1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -608,17 +610,15 @@
       <c r="S2" t="n">
         <v>0.005</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>296.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-1-5 11:24:52</t>
+          <t>2024-1-5 11:44:9</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -635,47 +635,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G3" t="n">
+        <v>14.9</v>
+      </c>
       <c r="H3" t="n">
-        <v>15.1</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
+        <v>1.0891</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3742</v>
+        <v>1.0844</v>
       </c>
       <c r="K3" t="n">
-        <v>1.1658</v>
-      </c>
-      <c r="L3" t="n">
-        <v>52.5515</v>
+        <v>52.8127</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
       <c r="O3" t="n">
-        <v>4</v>
-      </c>
-      <c r="P3" t="n">
         <v>2</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>298.8</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -683,17 +685,15 @@
       <c r="S3" t="n">
         <v>0.005</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
+      <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>301.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-1-5 11:24:53</t>
+          <t>2024-1-5 11:44:11</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -710,47 +710,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G4" t="n">
+        <v>14.9</v>
+      </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>32</v>
+        <v>1.4579</v>
       </c>
       <c r="J4" t="n">
-        <v>1.3174</v>
+        <v>1.2095</v>
       </c>
       <c r="K4" t="n">
-        <v>1.1399</v>
-      </c>
-      <c r="L4" t="n">
-        <v>53.9657</v>
+        <v>53.3874</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N4" t="n">
+        <v>4</v>
+      </c>
       <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>297.4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -758,17 +760,15 @@
       <c r="S4" t="n">
         <v>0.005</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>300.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-1-5 11:24:57</t>
+          <t>2024-1-5 11:44:14</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -785,47 +785,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>1.2336</v>
       </c>
       <c r="J5" t="n">
-        <v>1.3569</v>
+        <v>1.1989</v>
       </c>
       <c r="K5" t="n">
-        <v>1.3064</v>
-      </c>
-      <c r="L5" t="n">
-        <v>53.8507</v>
+        <v>52.858</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
       <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>299.3</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -833,17 +835,15 @@
       <c r="S5" t="n">
         <v>0.005</v>
       </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-1-5 11:25:2</t>
+          <t>2024-1-5 11:44:16</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -860,47 +860,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G6" t="n">
+        <v>14.9</v>
+      </c>
       <c r="H6" t="n">
-        <v>15.1</v>
+        <v>32</v>
       </c>
       <c r="I6" t="n">
-        <v>32</v>
+        <v>0.985</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3753</v>
+        <v>0.985</v>
       </c>
       <c r="K6" t="n">
-        <v>1.1917</v>
-      </c>
-      <c r="L6" t="n">
-        <v>52.9695</v>
+        <v>53.7183</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N6" t="n">
+        <v>4</v>
+      </c>
       <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
         <v>2</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>298.9</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -908,17 +910,15 @@
       <c r="S6" t="n">
         <v>0.005</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>302.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-1-5 11:25:5</t>
+          <t>2024-1-5 11:44:18</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -935,47 +935,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G7" t="n">
+        <v>15</v>
+      </c>
       <c r="H7" t="n">
-        <v>15.1</v>
+        <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>1.1876</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3078</v>
+        <v>1.153</v>
       </c>
       <c r="K7" t="n">
-        <v>1.2479</v>
-      </c>
-      <c r="L7" t="n">
-        <v>51.5483</v>
+        <v>52.3111</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
       <c r="O7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" t="n">
         <v>2</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>299.4</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -983,17 +985,15 @@
       <c r="S7" t="n">
         <v>0.005</v>
       </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>301.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-1-5 11:25:10</t>
+          <t>2024-1-5 11:44:19</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1010,47 +1010,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G8" t="n">
+        <v>14.9</v>
+      </c>
       <c r="H8" t="n">
-        <v>15.1</v>
+        <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>1.2369</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2207</v>
+        <v>1.2369</v>
       </c>
       <c r="K8" t="n">
-        <v>1.198</v>
-      </c>
-      <c r="L8" t="n">
-        <v>54.5125</v>
+        <v>52.5967</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N8" t="n">
+        <v>4</v>
+      </c>
       <c r="O8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>298.7</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1058,17 +1060,15 @@
       <c r="S8" t="n">
         <v>0.005</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>302.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-1-5 11:25:14</t>
+          <t>2024-1-5 11:44:22</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1085,47 +1085,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G9" t="n">
+        <v>15</v>
+      </c>
       <c r="H9" t="n">
-        <v>15.1</v>
+        <v>32</v>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>1.1981</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3952</v>
+        <v>0.9833</v>
       </c>
       <c r="K9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="L9" t="n">
-        <v>52.7848</v>
+        <v>51.6389</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N9" t="n">
+        <v>4</v>
+      </c>
       <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>300.5</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1133,17 +1135,15 @@
       <c r="S9" t="n">
         <v>0.005</v>
       </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
-        <v>301.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-1-5 11:25:23</t>
+          <t>2024-1-5 11:44:23</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1160,47 +1160,49 @@
           <t>SGD</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G10" t="n">
+        <v>15</v>
+      </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>1.4878</v>
       </c>
       <c r="J10" t="n">
-        <v>1.4714</v>
+        <v>1.0866</v>
       </c>
       <c r="K10" t="n">
-        <v>1.2503</v>
-      </c>
-      <c r="L10" t="n">
-        <v>52.6107</v>
+        <v>53.4954</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N10" t="n">
+        <v>4</v>
+      </c>
       <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
         <v>2</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>299.2</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1208,17 +1210,15 @@
       <c r="S10" t="n">
         <v>0.005</v>
       </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
+      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>299.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-1-5 11:25:26</t>
+          <t>2024-1-5 11:44:24</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1237,49 +1237,47 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
           <t>CEL</t>
         </is>
       </c>
+      <c r="G11" t="n">
+        <v>15</v>
+      </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I11" t="n">
-        <v>32</v>
+        <v>1.491</v>
       </c>
       <c r="J11" t="n">
-        <v>1.4861</v>
+        <v>1.2555</v>
       </c>
       <c r="K11" t="n">
-        <v>1.2146</v>
-      </c>
-      <c r="L11" t="n">
-        <v>53.997</v>
+        <v>52.2415</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
           <t>cuda:0</t>
         </is>
       </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
       <c r="O11" t="n">
-        <v>4</v>
-      </c>
-      <c r="P11" t="n">
         <v>2</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>Stationær</t>
         </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>299</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1287,11 +1285,13 @@
       <c r="S11" t="n">
         <v>0.005</v>
       </c>
-      <c r="T11" t="n">
-        <v>0</v>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="U11" t="n">
-        <v>300.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sgd.xlsx
+++ b/sgd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-1-5 11:43:54</t>
+          <t>2024-1-5 11:52:45</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -553,7 +553,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -566,19 +566,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>14.8</v>
+        <v>15.1</v>
       </c>
       <c r="H2" t="n">
         <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>1.375</v>
+        <v>1.7251</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2159</v>
+        <v>1.5853</v>
       </c>
       <c r="K2" t="n">
-        <v>53.4049</v>
+        <v>33.2822</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>296.1</v>
+        <v>301.9</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -618,7 +618,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:9</t>
+          <t>2024-1-5 11:52:49</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -628,7 +628,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -641,19 +641,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="H3" t="n">
         <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0891</v>
+        <v>1.6375</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0844</v>
+        <v>1.6375</v>
       </c>
       <c r="K3" t="n">
-        <v>52.8127</v>
+        <v>28.8272</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>298.8</v>
+        <v>302.7</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -693,7 +693,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:11</t>
+          <t>2024-1-5 11:52:53</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -703,7 +703,7 @@
         <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -716,19 +716,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="H4" t="n">
         <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>1.4579</v>
+        <v>1.6842</v>
       </c>
       <c r="J4" t="n">
-        <v>1.2095</v>
+        <v>1.6497</v>
       </c>
       <c r="K4" t="n">
-        <v>53.3874</v>
+        <v>29.5796</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>297.4</v>
+        <v>304.4</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:14</t>
+          <t>2024-1-5 11:52:56</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -778,7 +778,7 @@
         <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -791,19 +791,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="H5" t="n">
         <v>32</v>
       </c>
       <c r="I5" t="n">
-        <v>1.2336</v>
+        <v>1.6118</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1989</v>
+        <v>1.6118</v>
       </c>
       <c r="K5" t="n">
-        <v>52.858</v>
+        <v>29.9697</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>299.3</v>
+        <v>302</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:16</t>
+          <t>2024-1-5 11:52:57</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -853,7 +853,7 @@
         <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -866,19 +866,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="H6" t="n">
         <v>32</v>
       </c>
       <c r="I6" t="n">
-        <v>0.985</v>
+        <v>1.6807</v>
       </c>
       <c r="J6" t="n">
-        <v>0.985</v>
+        <v>1.6807</v>
       </c>
       <c r="K6" t="n">
-        <v>53.7183</v>
+        <v>31.4919</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>298.9</v>
+        <v>306.4</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -918,7 +918,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:18</t>
+          <t>2024-1-5 11:53:1</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -928,7 +928,7 @@
         <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -941,19 +941,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="H7" t="n">
         <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1876</v>
+        <v>1.6889</v>
       </c>
       <c r="J7" t="n">
-        <v>1.153</v>
+        <v>1.6389</v>
       </c>
       <c r="K7" t="n">
-        <v>52.3111</v>
+        <v>29.5029</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>299.4</v>
+        <v>304.5</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:19</t>
+          <t>2024-1-5 11:53:5</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1003,7 +1003,7 @@
         <v>64</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1016,19 +1016,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="H8" t="n">
         <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2369</v>
+        <v>1.6512</v>
       </c>
       <c r="J8" t="n">
-        <v>1.2369</v>
+        <v>1.6355</v>
       </c>
       <c r="K8" t="n">
-        <v>52.5967</v>
+        <v>31.7949</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>298.7</v>
+        <v>305.2</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:22</t>
+          <t>2024-1-5 11:53:10</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1078,7 +1078,7 @@
         <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1091,19 +1091,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="H9" t="n">
         <v>32</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1981</v>
+        <v>1.7493</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9833</v>
+        <v>1.6112</v>
       </c>
       <c r="K9" t="n">
-        <v>51.6389</v>
+        <v>31.053</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>300.5</v>
+        <v>306.5</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1143,7 +1143,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:23</t>
+          <t>2024-1-5 11:53:13</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1153,7 +1153,7 @@
         <v>64</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1166,19 +1166,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="H10" t="n">
         <v>32</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4878</v>
+        <v>1.7515</v>
       </c>
       <c r="J10" t="n">
-        <v>1.0866</v>
+        <v>1.5428</v>
       </c>
       <c r="K10" t="n">
-        <v>53.4954</v>
+        <v>32.091</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>299.2</v>
+        <v>306.3</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-1-5 11:44:24</t>
+          <t>2024-1-5 11:53:13</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1228,7 +1228,7 @@
         <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1241,56 +1241,2306 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>32</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.5574</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.5574</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.1819</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>303.9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:58:45</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>20</v>
+      </c>
+      <c r="C12" t="n">
+        <v>64</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.6631</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.6052</v>
+      </c>
+      <c r="K12" t="n">
+        <v>31.3003</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>296.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:58:56</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>64</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>32</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.7426</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.6363</v>
+      </c>
+      <c r="K13" t="n">
+        <v>32.0457</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:59:5</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>64</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>32</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.7835</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.6704</v>
+      </c>
+      <c r="K14" t="n">
+        <v>32.4637</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:59:10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>32</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.6048</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.6048</v>
+      </c>
+      <c r="K15" t="n">
+        <v>31.3421</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>4</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>301.4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:59:19</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>64</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>32</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.6584</v>
+      </c>
+      <c r="K16" t="n">
+        <v>30.6872</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>301.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:59:19</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>20</v>
+      </c>
+      <c r="C17" t="n">
+        <v>64</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>32</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.6871</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.6871</v>
+      </c>
+      <c r="K17" t="n">
+        <v>31.0739</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>306.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:59:24</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+      <c r="C18" t="n">
+        <v>64</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>32</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.7065</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.7061</v>
+      </c>
+      <c r="K18" t="n">
+        <v>28.5102</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:59:27</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>20</v>
+      </c>
+      <c r="C19" t="n">
+        <v>64</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>32</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.6677</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.6065</v>
+      </c>
+      <c r="K19" t="n">
+        <v>32.3836</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>301.6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:59:34</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" t="n">
+        <v>64</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>32</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.6804</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.6277</v>
+      </c>
+      <c r="K20" t="n">
+        <v>30.1752</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>304</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-1-5 11:59:36</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>64</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>15</v>
       </c>
-      <c r="H11" t="n">
-        <v>32</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.491</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.2555</v>
-      </c>
-      <c r="K11" t="n">
-        <v>52.2415</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>FER2013</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>cuda:0</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Stationær</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>299</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T11" t="inlineStr">
+      <c r="H21" t="n">
+        <v>32</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.7796</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.6168</v>
+      </c>
+      <c r="K21" t="n">
+        <v>31.1296</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>4</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>300.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:5:48</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>64</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>32</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.6018</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.6018</v>
+      </c>
+      <c r="K22" t="n">
+        <v>32.6692</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>298.3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:5:54</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>64</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>15</v>
+      </c>
+      <c r="H23" t="n">
+        <v>32</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.646</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.6454</v>
+      </c>
+      <c r="K23" t="n">
+        <v>32.8712</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:5:59</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>64</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.7289</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.6352</v>
+      </c>
+      <c r="K24" t="n">
+        <v>30.9554</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>300.8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:6:4</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>64</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>32</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.6911</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.5669</v>
+      </c>
+      <c r="K25" t="n">
+        <v>35.2538</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:6:9</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="n">
+        <v>64</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>32</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.6314</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.6314</v>
+      </c>
+      <c r="K26" t="n">
+        <v>31.8019</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:6:12</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>64</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>32</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.6966</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.6166</v>
+      </c>
+      <c r="K27" t="n">
+        <v>32.9966</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:6:16</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>64</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>32</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.7673</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.6693</v>
+      </c>
+      <c r="K28" t="n">
+        <v>30.2484</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>301.6</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:6:21</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" t="n">
+        <v>64</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>32</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.5848</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.5848</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.9314</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>302.3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:6:24</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>64</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>32</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.7892</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.5414</v>
+      </c>
+      <c r="K30" t="n">
+        <v>32.9722</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>301.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:6:28</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" t="n">
+        <v>64</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>32</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.526</v>
+      </c>
+      <c r="K31" t="n">
+        <v>33.2404</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>300</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:36:51</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" t="n">
+        <v>64</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>32</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.6753</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.6753</v>
+      </c>
+      <c r="K32" t="n">
+        <v>26.7791</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>287.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:37:49</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>20</v>
+      </c>
+      <c r="C33" t="n">
+        <v>64</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>32</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.6892</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.6359</v>
+      </c>
+      <c r="K33" t="n">
+        <v>32.3766</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>4</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>301.3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:37:52</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>20</v>
+      </c>
+      <c r="C34" t="n">
+        <v>64</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>32</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.4144</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.4144</v>
+      </c>
+      <c r="K34" t="n">
+        <v>33.028</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>4</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:37:55</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>20</v>
+      </c>
+      <c r="C35" t="n">
+        <v>64</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>32</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.7912</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.6353</v>
+      </c>
+      <c r="K35" t="n">
+        <v>29.7294</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>302.2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:37:56</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+      <c r="C36" t="n">
+        <v>64</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>32</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.6548</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="K36" t="n">
+        <v>33.1325</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>4</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>301.6</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:38:0</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>20</v>
+      </c>
+      <c r="C37" t="n">
+        <v>64</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>32</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.6628</v>
+      </c>
+      <c r="K37" t="n">
+        <v>32.5264</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>4</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>303.3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:38:3</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>20</v>
+      </c>
+      <c r="C38" t="n">
+        <v>64</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H38" t="n">
+        <v>32</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.6775</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.6513</v>
+      </c>
+      <c r="K38" t="n">
+        <v>30.7604</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:38:5</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" t="n">
+        <v>64</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>32</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.6881</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.6808</v>
+      </c>
+      <c r="K39" t="n">
+        <v>31.4257</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:38:8</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" t="n">
+        <v>64</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>32</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.5819</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.5819</v>
+      </c>
+      <c r="K40" t="n">
+        <v>29.9767</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-1-5 12:38:9</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+      <c r="C41" t="n">
+        <v>64</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>32</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.5773</v>
+      </c>
+      <c r="K41" t="n">
+        <v>33.2544</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>302.4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="U11" t="n">
+      <c r="U41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/sgd.xlsx
+++ b/sgd.xlsx
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-1-5 11:52:45</t>
+          <t>2024-1-5 13:4:42</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -553,7 +553,7 @@
         <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>1.7251</v>
+        <v>1.4465</v>
       </c>
       <c r="J2" t="n">
-        <v>1.5853</v>
+        <v>1.4465</v>
       </c>
       <c r="K2" t="n">
-        <v>33.2822</v>
+        <v>44.8291</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -602,15 +602,19 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>301.9</v>
+        <v>303</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S2" t="n">
         <v>0.005</v>
       </c>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
@@ -618,7 +622,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-1-5 11:52:49</t>
+          <t>2024-1-5 13:4:46</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -628,7 +632,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -641,19 +645,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="H3" t="n">
         <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6375</v>
+        <v>1.5371</v>
       </c>
       <c r="J3" t="n">
-        <v>1.6375</v>
+        <v>1.2672</v>
       </c>
       <c r="K3" t="n">
-        <v>28.8272</v>
+        <v>44.8535</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -677,15 +681,19 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>302.7</v>
+        <v>304.9</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S3" t="n">
         <v>0.005</v>
       </c>
-      <c r="T3" t="inlineStr"/>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
@@ -693,7 +701,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-1-5 11:52:53</t>
+          <t>2024-1-5 13:4:49</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -703,7 +711,7 @@
         <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -716,19 +724,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="H4" t="n">
         <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>1.6842</v>
+        <v>1.5398</v>
       </c>
       <c r="J4" t="n">
-        <v>1.6497</v>
+        <v>1.2974</v>
       </c>
       <c r="K4" t="n">
-        <v>29.5796</v>
+        <v>45.0869</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -752,15 +760,19 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>304.4</v>
+        <v>306</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S4" t="n">
         <v>0.005</v>
       </c>
-      <c r="T4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
@@ -768,7 +780,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-1-5 11:52:56</t>
+          <t>2024-1-5 13:4:49</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -778,7 +790,7 @@
         <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -791,19 +803,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="H5" t="n">
         <v>32</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6118</v>
+        <v>1.2371</v>
       </c>
       <c r="J5" t="n">
-        <v>1.6118</v>
+        <v>1.2371</v>
       </c>
       <c r="K5" t="n">
-        <v>29.9697</v>
+        <v>43.6936</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -827,15 +839,19 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>302</v>
+        <v>304.6</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S5" t="n">
         <v>0.005</v>
       </c>
-      <c r="T5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
@@ -843,7 +859,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-1-5 11:52:57</t>
+          <t>2024-1-5 13:4:53</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -853,7 +869,7 @@
         <v>64</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -872,13 +888,13 @@
         <v>32</v>
       </c>
       <c r="I6" t="n">
-        <v>1.6807</v>
+        <v>1.3736</v>
       </c>
       <c r="J6" t="n">
-        <v>1.6807</v>
+        <v>1.2427</v>
       </c>
       <c r="K6" t="n">
-        <v>31.4919</v>
+        <v>46.1458</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -902,15 +918,19 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>306.4</v>
+        <v>306.2</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S6" t="n">
         <v>0.005</v>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
@@ -918,7 +938,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-1-5 11:53:1</t>
+          <t>2024-1-5 13:4:55</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -928,7 +948,7 @@
         <v>64</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -941,19 +961,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="H7" t="n">
         <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>1.6889</v>
+        <v>1.2769</v>
       </c>
       <c r="J7" t="n">
-        <v>1.6389</v>
+        <v>1.2769</v>
       </c>
       <c r="K7" t="n">
-        <v>29.5029</v>
+        <v>44.0837</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -977,15 +997,19 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>304.5</v>
+        <v>306.1</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S7" t="n">
         <v>0.005</v>
       </c>
-      <c r="T7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
@@ -993,7 +1017,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-1-5 11:53:5</t>
+          <t>2024-1-5 13:4:59</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1003,7 +1027,7 @@
         <v>64</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1016,19 +1040,19 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="H8" t="n">
         <v>32</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6512</v>
+        <v>1.4672</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6355</v>
+        <v>1.4184</v>
       </c>
       <c r="K8" t="n">
-        <v>31.7949</v>
+        <v>45.6442</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1052,15 +1076,19 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>305.2</v>
+        <v>308</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S8" t="n">
         <v>0.005</v>
       </c>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
@@ -1068,7 +1096,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-1-5 11:53:10</t>
+          <t>2024-1-5 13:4:59</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1078,7 +1106,7 @@
         <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1097,13 +1125,13 @@
         <v>32</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7493</v>
+        <v>1.3347</v>
       </c>
       <c r="J9" t="n">
-        <v>1.6112</v>
+        <v>1.3059</v>
       </c>
       <c r="K9" t="n">
-        <v>31.053</v>
+        <v>45.3899</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1127,15 +1155,19 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>306.5</v>
+        <v>305.8</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S9" t="n">
         <v>0.005</v>
       </c>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
@@ -1143,7 +1175,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-1-5 11:53:13</t>
+          <t>2024-1-5 13:5:3</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1153,7 +1185,7 @@
         <v>64</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1166,19 +1198,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="H10" t="n">
         <v>32</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7515</v>
+        <v>1.3813</v>
       </c>
       <c r="J10" t="n">
-        <v>1.5428</v>
+        <v>1.0202</v>
       </c>
       <c r="K10" t="n">
-        <v>32.091</v>
+        <v>46.1876</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1202,15 +1234,19 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>306.3</v>
+        <v>307.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S10" t="n">
         <v>0.005</v>
       </c>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
@@ -1218,7 +1254,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-1-5 11:53:13</t>
+          <t>2024-1-5 13:5:3</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1228,7 +1264,7 @@
         <v>64</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1241,19 +1277,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="H11" t="n">
         <v>32</v>
       </c>
       <c r="I11" t="n">
-        <v>1.5574</v>
+        <v>1.4265</v>
       </c>
       <c r="J11" t="n">
-        <v>1.5574</v>
+        <v>1.2699</v>
       </c>
       <c r="K11" t="n">
-        <v>31.1819</v>
+        <v>45.2541</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1277,15 +1313,19 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>303.9</v>
+        <v>305.7</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S11" t="n">
         <v>0.005</v>
       </c>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
@@ -1293,7 +1333,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-1-5 11:58:45</t>
+          <t>2024-1-5 13:11:19</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1303,7 +1343,7 @@
         <v>64</v>
       </c>
       <c r="D12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1316,19 +1356,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
         <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>1.6631</v>
+        <v>1.3879</v>
       </c>
       <c r="J12" t="n">
-        <v>1.6052</v>
+        <v>1.3879</v>
       </c>
       <c r="K12" t="n">
-        <v>31.3003</v>
+        <v>44.035</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1352,15 +1392,19 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>296.6</v>
+        <v>300.2</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S12" t="n">
         <v>0.005</v>
       </c>
-      <c r="T12" t="inlineStr"/>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
@@ -1368,7 +1412,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-1-5 11:58:56</t>
+          <t>2024-1-5 13:11:22</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1378,7 +1422,7 @@
         <v>64</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1391,19 +1435,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
         <v>32</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7426</v>
+        <v>1.5921</v>
       </c>
       <c r="J13" t="n">
-        <v>1.6363</v>
+        <v>1.3271</v>
       </c>
       <c r="K13" t="n">
-        <v>32.0457</v>
+        <v>45.3063</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1427,15 +1471,19 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>298.5</v>
+        <v>299.9</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S13" t="n">
         <v>0.005</v>
       </c>
-      <c r="T13" t="inlineStr"/>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
@@ -1443,7 +1491,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-1-5 11:59:5</t>
+          <t>2024-1-5 13:11:28</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1453,7 +1501,7 @@
         <v>64</v>
       </c>
       <c r="D14" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1472,13 +1520,13 @@
         <v>32</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7835</v>
+        <v>1.6204</v>
       </c>
       <c r="J14" t="n">
-        <v>1.6704</v>
+        <v>1.3972</v>
       </c>
       <c r="K14" t="n">
-        <v>32.4637</v>
+        <v>47.1455</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1502,15 +1550,19 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>301.4</v>
+        <v>302</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S14" t="n">
         <v>0.005</v>
       </c>
-      <c r="T14" t="inlineStr"/>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
@@ -1518,7 +1570,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-1-5 11:59:10</t>
+          <t>2024-1-5 13:11:34</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1528,7 +1580,7 @@
         <v>64</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1541,19 +1593,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="H15" t="n">
         <v>32</v>
       </c>
       <c r="I15" t="n">
-        <v>1.6048</v>
+        <v>1.4053</v>
       </c>
       <c r="J15" t="n">
-        <v>1.6048</v>
+        <v>1.3436</v>
       </c>
       <c r="K15" t="n">
-        <v>31.3421</v>
+        <v>45.8463</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1577,15 +1629,19 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>301.4</v>
+        <v>303.4</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S15" t="n">
         <v>0.005</v>
       </c>
-      <c r="T15" t="inlineStr"/>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
@@ -1593,7 +1649,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-1-5 11:59:19</t>
+          <t>2024-1-5 13:11:38</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1603,7 +1659,7 @@
         <v>64</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1622,13 +1678,13 @@
         <v>32</v>
       </c>
       <c r="I16" t="n">
-        <v>1.699</v>
+        <v>1.4076</v>
       </c>
       <c r="J16" t="n">
-        <v>1.6584</v>
+        <v>1.4076</v>
       </c>
       <c r="K16" t="n">
-        <v>30.6872</v>
+        <v>43.6623</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1652,15 +1708,19 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>301.6</v>
+        <v>302.4</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S16" t="n">
         <v>0.005</v>
       </c>
-      <c r="T16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
@@ -1668,7 +1728,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-1-5 11:59:19</t>
+          <t>2024-1-5 13:11:45</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1678,7 +1738,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1691,19 +1751,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="H17" t="n">
         <v>32</v>
       </c>
       <c r="I17" t="n">
-        <v>1.6871</v>
+        <v>1.6511</v>
       </c>
       <c r="J17" t="n">
-        <v>1.6871</v>
+        <v>1.2988</v>
       </c>
       <c r="K17" t="n">
-        <v>31.0739</v>
+        <v>45.5606</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1727,15 +1787,19 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>306.4</v>
+        <v>304.5</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S17" t="n">
         <v>0.005</v>
       </c>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
@@ -1743,7 +1807,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-1-5 11:59:24</t>
+          <t>2024-1-5 13:11:48</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1753,7 +1817,7 @@
         <v>64</v>
       </c>
       <c r="D18" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1766,19 +1830,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="H18" t="n">
         <v>32</v>
       </c>
       <c r="I18" t="n">
-        <v>1.7065</v>
+        <v>1.5635</v>
       </c>
       <c r="J18" t="n">
-        <v>1.7061</v>
+        <v>1.323</v>
       </c>
       <c r="K18" t="n">
-        <v>28.5102</v>
+        <v>45.1392</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1802,15 +1866,19 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>302.6</v>
+        <v>303.1</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S18" t="n">
         <v>0.005</v>
       </c>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
@@ -1818,7 +1886,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-1-5 11:59:27</t>
+          <t>2024-1-5 13:11:51</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1828,7 +1896,7 @@
         <v>64</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1847,13 +1915,13 @@
         <v>32</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6677</v>
+        <v>1.3942</v>
       </c>
       <c r="J19" t="n">
-        <v>1.6065</v>
+        <v>1.3254</v>
       </c>
       <c r="K19" t="n">
-        <v>32.3836</v>
+        <v>45.167</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1877,15 +1945,19 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>301.6</v>
+        <v>302.3</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S19" t="n">
         <v>0.005</v>
       </c>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
@@ -1893,7 +1965,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-1-5 11:59:34</t>
+          <t>2024-1-5 13:11:56</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1903,7 +1975,7 @@
         <v>64</v>
       </c>
       <c r="D20" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1922,13 +1994,13 @@
         <v>32</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6804</v>
+        <v>1.6354</v>
       </c>
       <c r="J20" t="n">
-        <v>1.6277</v>
+        <v>1.2637</v>
       </c>
       <c r="K20" t="n">
-        <v>30.1752</v>
+        <v>44.6027</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1952,15 +2024,19 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>304</v>
+        <v>303.5</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S20" t="n">
         <v>0.005</v>
       </c>
-      <c r="T20" t="inlineStr"/>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
@@ -1968,7 +2044,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-1-5 11:59:36</t>
+          <t>2024-1-5 13:11:58</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1978,7 +2054,7 @@
         <v>64</v>
       </c>
       <c r="D21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1997,13 +2073,13 @@
         <v>32</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7796</v>
+        <v>1.2836</v>
       </c>
       <c r="J21" t="n">
-        <v>1.6168</v>
+        <v>1.2836</v>
       </c>
       <c r="K21" t="n">
-        <v>31.1296</v>
+        <v>45.3029</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2027,15 +2103,19 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>300.6</v>
+        <v>300.5</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S21" t="n">
         <v>0.005</v>
       </c>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
@@ -2043,7 +2123,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024-1-5 12:5:48</t>
+          <t>2024-1-5 13:18:17</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2053,7 +2133,7 @@
         <v>64</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2066,19 +2146,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="H22" t="n">
         <v>32</v>
       </c>
       <c r="I22" t="n">
-        <v>1.6018</v>
+        <v>1.5051</v>
       </c>
       <c r="J22" t="n">
-        <v>1.6018</v>
+        <v>1.2725</v>
       </c>
       <c r="K22" t="n">
-        <v>32.6692</v>
+        <v>45.282</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2102,15 +2182,19 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>298.3</v>
+        <v>296.7</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S22" t="n">
         <v>0.005</v>
       </c>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
@@ -2118,7 +2202,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024-1-5 12:5:54</t>
+          <t>2024-1-5 13:18:23</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2128,7 +2212,7 @@
         <v>64</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2141,19 +2225,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="H23" t="n">
         <v>32</v>
       </c>
       <c r="I23" t="n">
-        <v>1.646</v>
+        <v>1.422</v>
       </c>
       <c r="J23" t="n">
-        <v>1.6454</v>
+        <v>1.4067</v>
       </c>
       <c r="K23" t="n">
-        <v>32.8712</v>
+        <v>45.1531</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2177,15 +2261,19 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>299.7</v>
+        <v>298.1</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S23" t="n">
         <v>0.005</v>
       </c>
-      <c r="T23" t="inlineStr"/>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
@@ -2193,7 +2281,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024-1-5 12:5:59</t>
+          <t>2024-1-5 13:18:28</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2203,7 +2291,7 @@
         <v>64</v>
       </c>
       <c r="D24" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2222,13 +2310,13 @@
         <v>32</v>
       </c>
       <c r="I24" t="n">
-        <v>1.7289</v>
+        <v>1.5672</v>
       </c>
       <c r="J24" t="n">
-        <v>1.6352</v>
+        <v>1.3511</v>
       </c>
       <c r="K24" t="n">
-        <v>30.9554</v>
+        <v>44.9754</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2252,15 +2340,19 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>300.8</v>
+        <v>300.2</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S24" t="n">
         <v>0.005</v>
       </c>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
@@ -2268,7 +2360,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024-1-5 12:6:4</t>
+          <t>2024-1-5 13:18:35</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2278,7 +2370,7 @@
         <v>64</v>
       </c>
       <c r="D25" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2297,13 +2389,13 @@
         <v>32</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6911</v>
+        <v>1.3688</v>
       </c>
       <c r="J25" t="n">
-        <v>1.5669</v>
+        <v>1.3688</v>
       </c>
       <c r="K25" t="n">
-        <v>35.2538</v>
+        <v>45.1078</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2327,15 +2419,19 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>302.1</v>
+        <v>301.8</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S25" t="n">
         <v>0.005</v>
       </c>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
@@ -2343,7 +2439,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2024-1-5 12:6:9</t>
+          <t>2024-1-5 13:18:40</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2353,7 +2449,7 @@
         <v>64</v>
       </c>
       <c r="D26" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2366,19 +2462,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
         <v>32</v>
       </c>
       <c r="I26" t="n">
-        <v>1.6314</v>
+        <v>1.7189</v>
       </c>
       <c r="J26" t="n">
-        <v>1.6314</v>
+        <v>1.3661</v>
       </c>
       <c r="K26" t="n">
-        <v>31.8019</v>
+        <v>45.5188</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2402,15 +2498,19 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>303.2</v>
+        <v>300.5</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S26" t="n">
         <v>0.005</v>
       </c>
-      <c r="T26" t="inlineStr"/>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
@@ -2418,7 +2518,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2024-1-5 12:6:12</t>
+          <t>2024-1-5 13:18:47</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2428,7 +2528,7 @@
         <v>64</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2447,13 +2547,13 @@
         <v>32</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6966</v>
+        <v>1.3103</v>
       </c>
       <c r="J27" t="n">
-        <v>1.6166</v>
+        <v>1.3103</v>
       </c>
       <c r="K27" t="n">
-        <v>32.9966</v>
+        <v>43.1328</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2477,15 +2577,19 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>302.1</v>
+        <v>302.2</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S27" t="n">
         <v>0.005</v>
       </c>
-      <c r="T27" t="inlineStr"/>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
@@ -2493,7 +2597,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2024-1-5 12:6:16</t>
+          <t>2024-1-5 13:18:50</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2503,7 +2607,7 @@
         <v>64</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2522,13 +2626,13 @@
         <v>32</v>
       </c>
       <c r="I28" t="n">
-        <v>1.7673</v>
+        <v>1.5667</v>
       </c>
       <c r="J28" t="n">
-        <v>1.6693</v>
+        <v>1.1925</v>
       </c>
       <c r="K28" t="n">
-        <v>30.2484</v>
+        <v>45.0904</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2552,15 +2656,19 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>301.6</v>
+        <v>302.2</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S28" t="n">
         <v>0.005</v>
       </c>
-      <c r="T28" t="inlineStr"/>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
@@ -2568,7 +2676,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2024-1-5 12:6:21</t>
+          <t>2024-1-5 13:18:52</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2578,7 +2686,7 @@
         <v>64</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2591,19 +2699,19 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n">
         <v>32</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5848</v>
+        <v>1.4112</v>
       </c>
       <c r="J29" t="n">
-        <v>1.5848</v>
+        <v>1.3946</v>
       </c>
       <c r="K29" t="n">
-        <v>29.9314</v>
+        <v>45.1566</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2627,15 +2735,19 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>302.3</v>
+        <v>300.3</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S29" t="n">
         <v>0.005</v>
       </c>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
@@ -2643,7 +2755,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2024-1-5 12:6:24</t>
+          <t>2024-1-5 13:18:54</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2653,7 +2765,7 @@
         <v>64</v>
       </c>
       <c r="D30" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2666,19 +2778,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="H30" t="n">
         <v>32</v>
       </c>
       <c r="I30" t="n">
-        <v>1.7892</v>
+        <v>1.5159</v>
       </c>
       <c r="J30" t="n">
-        <v>1.5414</v>
+        <v>1.2806</v>
       </c>
       <c r="K30" t="n">
-        <v>32.9722</v>
+        <v>44.8326</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2702,15 +2814,19 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>301.3</v>
+        <v>299.8</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S30" t="n">
         <v>0.005</v>
       </c>
-      <c r="T30" t="inlineStr"/>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
@@ -2718,7 +2834,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2024-1-5 12:6:28</t>
+          <t>2024-1-5 13:18:58</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2728,7 +2844,7 @@
         <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2747,13 +2863,13 @@
         <v>32</v>
       </c>
       <c r="I31" t="n">
-        <v>1.657</v>
+        <v>1.5964</v>
       </c>
       <c r="J31" t="n">
-        <v>1.526</v>
+        <v>1.346</v>
       </c>
       <c r="K31" t="n">
-        <v>33.2404</v>
+        <v>45.0799</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2777,15 +2893,19 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>300</v>
+        <v>299.1</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S31" t="n">
         <v>0.005</v>
       </c>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
@@ -2793,7 +2913,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2024-1-5 12:36:51</t>
+          <t>2024-1-5 13:25:36</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2803,7 +2923,7 @@
         <v>64</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2816,19 +2936,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
         <v>32</v>
       </c>
       <c r="I32" t="n">
-        <v>1.6753</v>
+        <v>1.7231</v>
       </c>
       <c r="J32" t="n">
-        <v>1.6753</v>
+        <v>1.2899</v>
       </c>
       <c r="K32" t="n">
-        <v>26.7791</v>
+        <v>43.5334</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2852,15 +2972,19 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>287.8</v>
+        <v>299.2</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S32" t="n">
         <v>0.005</v>
       </c>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
@@ -2868,7 +2992,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2024-1-5 12:37:49</t>
+          <t>2024-1-5 13:25:39</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2878,7 +3002,7 @@
         <v>64</v>
       </c>
       <c r="D33" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2891,19 +3015,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="H33" t="n">
         <v>32</v>
       </c>
       <c r="I33" t="n">
-        <v>1.6892</v>
+        <v>1.5029</v>
       </c>
       <c r="J33" t="n">
-        <v>1.6359</v>
+        <v>1.349</v>
       </c>
       <c r="K33" t="n">
-        <v>32.3766</v>
+        <v>43.2025</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2927,15 +3051,19 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>301.3</v>
+        <v>299.8</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S33" t="n">
         <v>0.005</v>
       </c>
-      <c r="T33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
@@ -2943,7 +3071,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2024-1-5 12:37:52</t>
+          <t>2024-1-5 13:25:47</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2953,7 +3081,7 @@
         <v>64</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2966,19 +3094,19 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="H34" t="n">
         <v>32</v>
       </c>
       <c r="I34" t="n">
-        <v>1.4144</v>
+        <v>1.5235</v>
       </c>
       <c r="J34" t="n">
-        <v>1.4144</v>
+        <v>1.3432</v>
       </c>
       <c r="K34" t="n">
-        <v>33.028</v>
+        <v>44.2649</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -3002,15 +3130,19 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>301.5</v>
+        <v>303.5</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S34" t="n">
         <v>0.005</v>
       </c>
-      <c r="T34" t="inlineStr"/>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
@@ -3018,7 +3150,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2024-1-5 12:37:55</t>
+          <t>2024-1-5 13:25:50</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3028,7 +3160,7 @@
         <v>64</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3047,13 +3179,13 @@
         <v>32</v>
       </c>
       <c r="I35" t="n">
-        <v>1.7912</v>
+        <v>1.5937</v>
       </c>
       <c r="J35" t="n">
-        <v>1.6353</v>
+        <v>1.3244</v>
       </c>
       <c r="K35" t="n">
-        <v>29.7294</v>
+        <v>44.5714</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3077,15 +3209,19 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>302.2</v>
+        <v>302.6</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S35" t="n">
         <v>0.005</v>
       </c>
-      <c r="T35" t="inlineStr"/>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
@@ -3093,7 +3229,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2024-1-5 12:37:56</t>
+          <t>2024-1-5 13:25:56</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3103,7 +3239,7 @@
         <v>64</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3122,13 +3258,13 @@
         <v>32</v>
       </c>
       <c r="I36" t="n">
-        <v>1.6548</v>
+        <v>1.2044</v>
       </c>
       <c r="J36" t="n">
-        <v>1.638</v>
+        <v>1.2044</v>
       </c>
       <c r="K36" t="n">
-        <v>33.1325</v>
+        <v>43.8399</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3152,15 +3288,19 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>301.6</v>
+        <v>302.4</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S36" t="n">
         <v>0.005</v>
       </c>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
@@ -3168,7 +3308,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2024-1-5 12:38:0</t>
+          <t>2024-1-5 13:25:59</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3178,7 +3318,7 @@
         <v>64</v>
       </c>
       <c r="D37" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3191,19 +3331,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="H37" t="n">
         <v>32</v>
       </c>
       <c r="I37" t="n">
-        <v>1.729</v>
+        <v>1.6057</v>
       </c>
       <c r="J37" t="n">
-        <v>1.6628</v>
+        <v>1.5142</v>
       </c>
       <c r="K37" t="n">
-        <v>32.5264</v>
+        <v>43.4359</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3227,15 +3367,19 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>303.3</v>
+        <v>301.2</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S37" t="n">
         <v>0.005</v>
       </c>
-      <c r="T37" t="inlineStr"/>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
@@ -3243,7 +3387,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2024-1-5 12:38:3</t>
+          <t>2024-1-5 13:26:4</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3253,7 +3397,7 @@
         <v>64</v>
       </c>
       <c r="D38" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3266,19 +3410,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="H38" t="n">
         <v>32</v>
       </c>
       <c r="I38" t="n">
-        <v>1.6775</v>
+        <v>1.2314</v>
       </c>
       <c r="J38" t="n">
-        <v>1.6513</v>
+        <v>1.2314</v>
       </c>
       <c r="K38" t="n">
-        <v>30.7604</v>
+        <v>45.5571</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3302,15 +3446,19 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>303.2</v>
+        <v>302.1</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S38" t="n">
         <v>0.005</v>
       </c>
-      <c r="T38" t="inlineStr"/>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
@@ -3318,7 +3466,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2024-1-5 12:38:5</t>
+          <t>2024-1-5 13:26:9</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3328,7 +3476,7 @@
         <v>64</v>
       </c>
       <c r="D39" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3341,19 +3489,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="H39" t="n">
         <v>32</v>
       </c>
       <c r="I39" t="n">
-        <v>1.6881</v>
+        <v>1.5868</v>
       </c>
       <c r="J39" t="n">
-        <v>1.6808</v>
+        <v>1.1833</v>
       </c>
       <c r="K39" t="n">
-        <v>31.4257</v>
+        <v>45.686</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3377,15 +3525,19 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>302.6</v>
+        <v>303.8</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S39" t="n">
         <v>0.005</v>
       </c>
-      <c r="T39" t="inlineStr"/>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
@@ -3393,7 +3545,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2024-1-5 12:38:8</t>
+          <t>2024-1-5 13:26:11</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3403,7 +3555,7 @@
         <v>64</v>
       </c>
       <c r="D40" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3416,19 +3568,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="H40" t="n">
         <v>32</v>
       </c>
       <c r="I40" t="n">
-        <v>1.5819</v>
+        <v>1.366</v>
       </c>
       <c r="J40" t="n">
-        <v>1.5819</v>
+        <v>1.3522</v>
       </c>
       <c r="K40" t="n">
-        <v>29.9767</v>
+        <v>45.3447</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3452,15 +3604,19 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>303.1</v>
+        <v>301.6</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S40" t="n">
         <v>0.005</v>
       </c>
-      <c r="T40" t="inlineStr"/>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>CosineAnnealingLR</t>
+        </is>
+      </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
@@ -3468,7 +3624,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2024-1-5 12:38:9</t>
+          <t>2024-1-5 13:26:14</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3478,7 +3634,7 @@
         <v>64</v>
       </c>
       <c r="D41" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3491,19 +3647,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="H41" t="n">
         <v>32</v>
       </c>
       <c r="I41" t="n">
-        <v>1.795</v>
+        <v>1.3688</v>
       </c>
       <c r="J41" t="n">
-        <v>1.5773</v>
+        <v>1.3688</v>
       </c>
       <c r="K41" t="n">
-        <v>33.2544</v>
+        <v>45.2715</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3527,17 +3683,17 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>302.4</v>
+        <v>300.6</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S41" t="n">
         <v>0.005</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>CosineAnnealingLR</t>
         </is>
       </c>
       <c r="U41" t="n">

--- a/sgd.xlsx
+++ b/sgd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3700,6 +3700,3010 @@
         <v>0</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:27</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" t="n">
+        <v>64</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>32</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.1242</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.0898</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5868542965620537</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>4</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:30</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" t="n">
+        <v>64</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H43" t="n">
+        <v>32</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.3499</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.1926</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.5725730607126684</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:32</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+      <c r="C44" t="n">
+        <v>64</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>32</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.1203</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1.0078</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.5882475878644328</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>302.8</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:38</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>20</v>
+      </c>
+      <c r="C45" t="n">
+        <v>64</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>32</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9354</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.9354</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.5603817618168518</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>4</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>306.4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:42</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>64</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>32</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.1516</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.0271</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5799923368978369</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>307.1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:43</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+      <c r="C47" t="n">
+        <v>64</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>32</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.2223</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.1725</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.5727123898429064</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>305.2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:46</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" t="n">
+        <v>64</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>32</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.3777</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.0729</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5645964680065485</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:52</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>20</v>
+      </c>
+      <c r="C49" t="n">
+        <v>64</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.3094</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.0183</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.5918004806854993</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>304.3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:52</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>20</v>
+      </c>
+      <c r="C50" t="n">
+        <v>64</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H50" t="n">
+        <v>32</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.1446</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.1446</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.573269706363858</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>307.6</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:28:55</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+      <c r="C51" t="n">
+        <v>64</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>32</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.2862</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.0626</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.5635166672472047</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>304.8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:23</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>20</v>
+      </c>
+      <c r="C52" t="n">
+        <v>64</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>15</v>
+      </c>
+      <c r="H52" t="n">
+        <v>32</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.2054</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.0319</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5843812045003309</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>4</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>299.7</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:24</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+      <c r="C53" t="n">
+        <v>64</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H53" t="n">
+        <v>32</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.2456</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.1051</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.5774844125535546</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>4</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:29</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>20</v>
+      </c>
+      <c r="C54" t="n">
+        <v>64</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>15</v>
+      </c>
+      <c r="H54" t="n">
+        <v>32</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.1544</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.1544</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.5760911212511756</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>299.6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:35</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>20</v>
+      </c>
+      <c r="C55" t="n">
+        <v>64</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>32</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.0376</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.0376</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.5775540771186736</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:39</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>20</v>
+      </c>
+      <c r="C56" t="n">
+        <v>64</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>32</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.0718</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.0718</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.5745933331011182</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>301.9</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:44</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>20</v>
+      </c>
+      <c r="C57" t="n">
+        <v>64</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>32</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.4892</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.1191</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.5827440872200356</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>302.3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:49</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>20</v>
+      </c>
+      <c r="C58" t="n">
+        <v>64</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>32</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.0391</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.5778327353791494</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:53</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>20</v>
+      </c>
+      <c r="C59" t="n">
+        <v>64</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H59" t="n">
+        <v>32</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.2004</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9341</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.6043401024069107</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>302.4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:57</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>20</v>
+      </c>
+      <c r="C60" t="n">
+        <v>64</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>32</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.4136</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.9566</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.590894841338953</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>303.4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:35:59</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>20</v>
+      </c>
+      <c r="C61" t="n">
+        <v>64</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>32</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.0159</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.9317</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.5786687101605769</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>302.3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:4</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>20</v>
+      </c>
+      <c r="C62" t="n">
+        <v>64</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>32</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.2475</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.1469</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.5798878400501585</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>302.7</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:4</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>20</v>
+      </c>
+      <c r="C63" t="n">
+        <v>64</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>15</v>
+      </c>
+      <c r="H63" t="n">
+        <v>32</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.4029</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.2013</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5759866244034971</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>4</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>300.8</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:8</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>20</v>
+      </c>
+      <c r="C64" t="n">
+        <v>64</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>32</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.0634</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.9338</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.5753596433174266</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>4</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:11</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>20</v>
+      </c>
+      <c r="C65" t="n">
+        <v>64</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>32</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.1425</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.5926364554669268</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>4</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>301.5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:18</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>20</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H66" t="n">
+        <v>32</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.2171</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.9395</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5866104705841374</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>4</v>
+      </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>305.5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:19</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>20</v>
+      </c>
+      <c r="C67" t="n">
+        <v>64</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>32</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.2798</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.0049</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.5775192448361142</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>303.6</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:20</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>20</v>
+      </c>
+      <c r="C68" t="n">
+        <v>64</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>32</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.0552</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.0552</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.5583266571458427</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>4</v>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>301.9</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:25</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>20</v>
+      </c>
+      <c r="C69" t="n">
+        <v>64</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>32</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.4485</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.8015</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.5658504301786896</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>303.5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:28</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>20</v>
+      </c>
+      <c r="C70" t="n">
+        <v>64</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>32</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.2902</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.9622000000000001</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.5711797694102895</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>303.4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-1-5 14:57:30</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>20</v>
+      </c>
+      <c r="C71" t="n">
+        <v>64</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>32</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.1432</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.5655021073530948</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>4</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>303.1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:6:57</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>20</v>
+      </c>
+      <c r="C72" t="n">
+        <v>64</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>15</v>
+      </c>
+      <c r="H72" t="n">
+        <v>32</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.1766</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.9668</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.5632728412692883</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>300.3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:0</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>20</v>
+      </c>
+      <c r="C73" t="n">
+        <v>64</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>15</v>
+      </c>
+      <c r="H73" t="n">
+        <v>32</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.0003</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1.0003</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.5554007454108467</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>4</v>
+      </c>
+      <c r="O73" t="n">
+        <v>2</v>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>300.6</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:2</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>20</v>
+      </c>
+      <c r="C74" t="n">
+        <v>64</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>15</v>
+      </c>
+      <c r="H74" t="n">
+        <v>32</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.2118</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.0845</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.5606952523598872</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>4</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>299.4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:5</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>20</v>
+      </c>
+      <c r="C75" t="n">
+        <v>64</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>32</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.5631335121390505</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:7</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>20</v>
+      </c>
+      <c r="C76" t="n">
+        <v>64</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>32</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.1634</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.0035</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.5752551464697482</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4</v>
+      </c>
+      <c r="O76" t="n">
+        <v>2</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:10</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>20</v>
+      </c>
+      <c r="C77" t="n">
+        <v>64</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>32</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.2464</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.9829</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.5841373785224145</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>4</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>20</v>
+      </c>
+      <c r="C78" t="n">
+        <v>64</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H78" t="n">
+        <v>32</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.0611</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.0563</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.5905465185133582</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>4</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>304</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:17</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>20</v>
+      </c>
+      <c r="C79" t="n">
+        <v>64</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H79" t="n">
+        <v>32</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.0752</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.0096</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.5719112473440384</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>303.3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:20</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>20</v>
+      </c>
+      <c r="C80" t="n">
+        <v>64</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H80" t="n">
+        <v>32</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.0021</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.8645</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5840328816747361</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>4</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>303.2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:7:24</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>20</v>
+      </c>
+      <c r="C81" t="n">
+        <v>64</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H81" t="n">
+        <v>32</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.3209</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.2089</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.5722944024521927</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>4</v>
+      </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>304.7</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sgd.xlsx
+++ b/sgd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2035,12 +2035,762 @@
       <c r="S21" t="n">
         <v>0</v>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:0</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>64</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>32</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2362</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2029</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9381378661743704</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>298.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:14</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>20</v>
+      </c>
+      <c r="C23" t="n">
+        <v>64</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>32</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0799</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9323557072694973</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>301.1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:19</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>64</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>32</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2329</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.2329</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9267825420599812</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>302.7</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:20</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" t="n">
+        <v>64</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>32</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1946</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1831</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9390435055209168</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>301.7</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+      <c r="C26" t="n">
+        <v>64</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>32</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3257</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3222</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9389738409557978</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>302.8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:28</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>20</v>
+      </c>
+      <c r="C27" t="n">
+        <v>64</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>32</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2081</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2081</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.934968128461458</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>304</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:32</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="n">
+        <v>64</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>32</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6582</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1737</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9360130969382424</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>4</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>303.9</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:34</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>20</v>
+      </c>
+      <c r="C29" t="n">
+        <v>64</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>32</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2644</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9261207286913511</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>4</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:38</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>64</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>32</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.6835</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1288</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9426312306245428</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>303.3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-1-5 15:43:41</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>20</v>
+      </c>
+      <c r="C31" t="n">
+        <v>64</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>CEL</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H31" t="n">
+        <v>32</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9413424361698423</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>FER2013</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>cuda:0</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>4</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Stationær</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>303.3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="U21" t="n">
+      <c r="U31" t="n">
         <v>0</v>
       </c>
     </row>
